--- a/raw/BOU.xlsx
+++ b/raw/BOU.xlsx
@@ -491,7 +491,7 @@
         <v>-6.73560783941284</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.700165183761293</v>
+        <v>-2.51134799296185</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -529,7 +529,7 @@
         <v>-11.9018167154762</v>
       </c>
       <c r="K3" t="n">
-        <v>-7.27295793939625</v>
+        <v>-10.3875967627627</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -587,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.660726440682163</v>
+        <v>-0.660726440682157</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -617,7 +617,7 @@
         <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.735640984642383</v>
+        <v>-0.735640984642382</v>
       </c>
       <c r="H6" t="n">
         <v>0.61087576249909</v>
@@ -629,7 +629,7 @@
         <v>-2.78867244071479</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.40288511953034</v>
+        <v>-2.05303145607241</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -655,10 +655,10 @@
         <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.871118646395246</v>
+        <v>-0.871118646395242</v>
       </c>
       <c r="H7" t="n">
-        <v>0.519432812895421</v>
+        <v>0.519432812895425</v>
       </c>
       <c r="I7" t="n">
         <v>-12.44940458004</v>
@@ -667,7 +667,7 @@
         <v>-6.39982078390021</v>
       </c>
       <c r="K7" t="n">
-        <v>-11.5782859336448</v>
+        <v>-5.52870213750497</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -705,7 +705,7 @@
         <v>-4.13702427287401</v>
       </c>
       <c r="K8" t="n">
-        <v>-6.21415364312067</v>
+        <v>-3.2514351454214</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -731,10 +731,10 @@
         <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.995570592520354</v>
+        <v>-0.995570592520352</v>
       </c>
       <c r="H9" t="n">
-        <v>0.575101366109023</v>
+        <v>0.575101366109026</v>
       </c>
       <c r="I9" t="n">
         <v>-9.7924896155497</v>
@@ -743,7 +743,7 @@
         <v>-6.64100856826646</v>
       </c>
       <c r="K9" t="n">
-        <v>-8.79691902302935</v>
+        <v>-5.64543797574611</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -769,10 +769,10 @@
         <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.59327284589324</v>
+        <v>-0.593272845893236</v>
       </c>
       <c r="H10" t="n">
-        <v>0.127219341636423</v>
+        <v>0.127219341636422</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -801,7 +801,7 @@
         <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.782967538817471</v>
+        <v>-0.782967538817464</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
@@ -873,7 +873,7 @@
         <v>-6.39956975689294</v>
       </c>
       <c r="K13" t="n">
-        <v>-9.61862980413608</v>
+        <v>-4.26324886604502</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -899,10 +899,10 @@
         <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.261612861115186</v>
+        <v>-0.261612861115181</v>
       </c>
       <c r="H14" t="n">
-        <v>0.175088224203944</v>
+        <v>0.17508822420394</v>
       </c>
       <c r="I14" t="n">
         <v>-9.82756977328422</v>
@@ -911,7 +911,7 @@
         <v>-5.56524950205525</v>
       </c>
       <c r="K14" t="n">
-        <v>-9.56595691216903</v>
+        <v>-5.30363664094007</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -937,10 +937,10 @@
         <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.169552434476457</v>
+        <v>-0.169552434476456</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0951092425815892</v>
+        <v>0.0951092425815889</v>
       </c>
       <c r="I15" t="n">
         <v>-5.05711794871795</v>
@@ -949,7 +949,7 @@
         <v>-2.91523144779381</v>
       </c>
       <c r="K15" t="n">
-        <v>-4.88756551424149</v>
+        <v>-2.74567901331735</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -975,10 +975,10 @@
         <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.879588458380571</v>
+        <v>-0.879588458380569</v>
       </c>
       <c r="H16" t="n">
-        <v>0.618556647413994</v>
+        <v>0.618556647413996</v>
       </c>
       <c r="I16" t="n">
         <v>-8.13776629809322</v>
@@ -987,7 +987,7 @@
         <v>-11.1866372490988</v>
       </c>
       <c r="K16" t="n">
-        <v>-7.25817783971265</v>
+        <v>-10.3070487907182</v>
       </c>
       <c r="L16" t="s">
         <v>23</v>
@@ -1013,10 +1013,10 @@
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.839778314944799</v>
+        <v>-0.839778314944796</v>
       </c>
       <c r="H17" t="n">
-        <v>0.198152004064813</v>
+        <v>0.198152004064817</v>
       </c>
       <c r="I17" t="n">
         <v>-4.15021834061125</v>
@@ -1025,7 +1025,7 @@
         <v>-5.66571842529705</v>
       </c>
       <c r="K17" t="n">
-        <v>-3.31044002566645</v>
+        <v>-4.82594011035225</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
@@ -1063,7 +1063,7 @@
         <v>-5.85009226011374</v>
       </c>
       <c r="K18" t="n">
-        <v>-2.75411628405643</v>
+        <v>-4.34853433439592</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
@@ -1092,7 +1092,7 @@
         <v>-1.03878190628836</v>
       </c>
       <c r="H19" t="n">
-        <v>0.496667523036831</v>
+        <v>0.496667523036833</v>
       </c>
       <c r="I19" t="n">
         <v>-0.688534704370167</v>
@@ -1101,7 +1101,7 @@
         <v>-0.917431879104344</v>
       </c>
       <c r="K19" t="n">
-        <v>0.350247201918198</v>
+        <v>0.12135002718402</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
@@ -1137,7 +1137,7 @@
         <v>-8.49864525642818</v>
       </c>
       <c r="K20" t="n">
-        <v>0.962159992983347</v>
+        <v>-1.33201088678372</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
@@ -1193,10 +1193,10 @@
         <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.875716039282898</v>
+        <v>-0.875716039282896</v>
       </c>
       <c r="H22" t="n">
-        <v>0.299062385624705</v>
+        <v>0.299062385624708</v>
       </c>
       <c r="I22" t="n">
         <v>-11.5841867474719</v>
@@ -1205,7 +1205,7 @@
         <v>-4.9514630048685</v>
       </c>
       <c r="K22" t="n">
-        <v>-10.708470708189</v>
+        <v>-4.0757469655856</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
@@ -1231,10 +1231,10 @@
         <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.678694338775785</v>
+        <v>-0.678694338775783</v>
       </c>
       <c r="H23" t="n">
-        <v>0.521078060619059</v>
+        <v>0.521078060619062</v>
       </c>
       <c r="I23" t="n">
         <v>-11.8539176961741</v>
@@ -1243,7 +1243,7 @@
         <v>-5.08575527149325</v>
       </c>
       <c r="K23" t="n">
-        <v>-11.1752233573983</v>
+        <v>-4.40706093271747</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
@@ -1281,7 +1281,7 @@
         <v>-5.06959694976168</v>
       </c>
       <c r="K24" t="n">
-        <v>-10.533524110168</v>
+        <v>-3.74693803124907</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
@@ -1317,7 +1317,7 @@
         <v>-5.66125400762353</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.49265643595018</v>
+        <v>-3.12581373074926</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
@@ -1343,10 +1343,10 @@
         <v>15</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.966903217479614</v>
+        <v>-0.966903217479613</v>
       </c>
       <c r="H26" t="n">
-        <v>0.164960217069562</v>
+        <v>0.164960217069563</v>
       </c>
       <c r="I26" t="n">
         <v>-13.0554748727031</v>
@@ -1355,7 +1355,7 @@
         <v>-6.98525619321476</v>
       </c>
       <c r="K26" t="n">
-        <v>-12.0885716552235</v>
+        <v>-6.01835297573515</v>
       </c>
       <c r="L26" t="s">
         <v>23</v>
@@ -1381,7 +1381,7 @@
         <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.478871149561144</v>
+        <v>-0.478871149561137</v>
       </c>
       <c r="H27" t="n">
         <v>0.0977046892456343</v>
@@ -1393,7 +1393,7 @@
         <v>-3.55638300027053</v>
       </c>
       <c r="K27" t="n">
-        <v>-6.17909115227781</v>
+        <v>-3.07751185070939</v>
       </c>
       <c r="L27" t="s">
         <v>23</v>
@@ -1419,10 +1419,10 @@
         <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.721397064641804</v>
+        <v>-0.7213970646418</v>
       </c>
       <c r="H28" t="n">
-        <v>0.329371092905865</v>
+        <v>0.329371092905868</v>
       </c>
       <c r="I28" t="n">
         <v>-8.32034750656836</v>
@@ -1431,7 +1431,7 @@
         <v>-4.43355442286952</v>
       </c>
       <c r="K28" t="n">
-        <v>-7.59895044192656</v>
+        <v>-3.71215735822772</v>
       </c>
       <c r="L28" t="s">
         <v>23</v>
